--- a/templates/services.xlsx
+++ b/templates/services.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="19200" windowHeight="8220"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="SERVICES" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>CIUDAD</t>
   </si>
   <si>
-    <t>DESTINATARIO</t>
-  </si>
-  <si>
     <t>CORREO DESTINATARIO</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Horas</t>
+  </si>
+  <si>
+    <t>NOMBRE DESTINATARIO</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,11 +570,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -596,43 +596,43 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +680,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -689,27 +689,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>0.20833333333333334</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>0.25</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>0.29166666666666702</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>0.33333333333333298</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>0.375</v>
